--- a/material_data.xlsx
+++ b/material_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://barnesgroup-my.sharepoint.com/personal/uyvqt_sy_bg1857_net/Documents/Documents/Manner Applications/MISC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5047FFF7-59F4-469A-9AAA-8FB5B8CF8C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{5047FFF7-59F4-469A-9AAA-8FB5B8CF8C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B45A4E-3E27-47A6-8A88-0D21DE6F5740}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601"/>
+    <workbookView xWindow="408" yWindow="1932" windowWidth="17280" windowHeight="9960" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10720,7 +10720,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -11055,12 +11055,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 6" xfId="5"/>
-    <cellStyle name="Normal 7" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 7" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11429,14 +11429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IU1334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11445,9 +11445,9 @@
     <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -11467,19 +11467,19 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="41" t="s">
         <v>2874</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="41" t="s">
         <v>2871</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="41" t="s">
         <v>2872</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="41" t="s">
         <v>2873</v>
       </c>
     </row>
@@ -38568,7 +38568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38582,7 +38582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
